--- a/TDT_MultiElectrode_Map.xlsx
+++ b/TDT_MultiElectrode_Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Wenstrup Laboratory/General Lab Stuff/ManualsAndDocumentation/TDT/Mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshanbhag/Work/Code/Matlab/dev/TytoLogy/Experiments/Opto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ECFFBD-242D-A74C-9086-E9A32D5426F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B7B2DB-293B-3A41-A57A-2F6845DC8A0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{2E405E57-3993-1449-9EF1-D471457F0319}"/>
   </bookViews>
@@ -46,8 +46,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -71,12 +79,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,7 +171,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -440,201 +504,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979B2143-B36C-A54A-80B3-8FB76DBC9F82}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
     </row>
